--- a/training_strategies_summary.xlsx
+++ b/training_strategies_summary.xlsx
@@ -470,13 +470,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.04972720518708229</v>
+        <v>0.0571870245039463</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05431631952524185</v>
+        <v>0.05223951488733292</v>
       </c>
       <c r="E2" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.06034265831112862</v>
+        <v>0.0661863386631012</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05945000052452087</v>
+        <v>0.06423897296190262</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -508,10 +508,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.07156497240066528</v>
+        <v>0.07765888422727585</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07270800322294235</v>
+        <v>0.07879263907670975</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
@@ -527,13 +527,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.05315295979380608</v>
+        <v>0.06626944243907928</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06053920090198517</v>
+        <v>0.05547873675823212</v>
       </c>
       <c r="E5" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1023212522268295</v>
+        <v>0.1117129027843475</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09906203299760818</v>
+        <v>0.0924677699804306</v>
       </c>
       <c r="E6" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.09997160732746124</v>
+        <v>0.1125283166766167</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1001095622777939</v>
+        <v>0.09783256053924561</v>
       </c>
       <c r="E7" t="n">
         <v>100</v>
@@ -584,13 +584,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.04667205363512039</v>
+        <v>0.05531912297010422</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05023293197154999</v>
+        <v>0.05884455516934395</v>
       </c>
       <c r="E8" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -603,10 +603,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.06268507242202759</v>
+        <v>0.06961457431316376</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05792368575930595</v>
+        <v>0.0661715492606163</v>
       </c>
       <c r="E9" t="n">
         <v>100</v>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.07387758791446686</v>
+        <v>0.07975488156080246</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07434264570474625</v>
+        <v>0.08228085190057755</v>
       </c>
       <c r="E10" t="n">
         <v>100</v>

--- a/training_strategies_summary.xlsx
+++ b/training_strategies_summary.xlsx
@@ -470,13 +470,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0571870245039463</v>
+        <v>0.03711932897567749</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05223951488733292</v>
+        <v>0.05409865453839302</v>
       </c>
       <c r="E2" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0661863386631012</v>
+        <v>0.04370468482375145</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06423897296190262</v>
+        <v>0.06023997440934181</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -508,10 +508,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.07765888422727585</v>
+        <v>0.04759747162461281</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07879263907670975</v>
+        <v>0.06748966872692108</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
@@ -527,13 +527,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.06626944243907928</v>
+        <v>0.05596384778618813</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05547873675823212</v>
+        <v>0.05912764370441437</v>
       </c>
       <c r="E5" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1117129027843475</v>
+        <v>0.1042451858520508</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0924677699804306</v>
+        <v>0.09426844865083694</v>
       </c>
       <c r="E6" t="n">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1125283166766167</v>
+        <v>0.08769933134317398</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09783256053924561</v>
+        <v>0.08900425583124161</v>
       </c>
       <c r="E7" t="n">
         <v>100</v>
@@ -584,13 +584,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.05531912297010422</v>
+        <v>0.03670495003461838</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05884455516934395</v>
+        <v>0.05148013308644295</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -603,10 +603,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.06961457431316376</v>
+        <v>0.04323182627558708</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0661715492606163</v>
+        <v>0.05724363029003143</v>
       </c>
       <c r="E9" t="n">
         <v>100</v>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.07975488156080246</v>
+        <v>0.04520436003804207</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08228085190057755</v>
+        <v>0.06079382821917534</v>
       </c>
       <c r="E10" t="n">
         <v>100</v>
